--- a/src/test/resources/excelfile.xlsx
+++ b/src/test/resources/excelfile.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sayfa2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sayfa2_2" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t xml:space="preserve">COUNTRY</t>
   </si>
@@ -71,6 +73,18 @@
   </si>
   <si>
     <t xml:space="preserve">Türkiye</t>
+  </si>
+  <si>
+    <t>POPULATION</t>
+  </si>
+  <si>
+    <t>16000000</t>
+  </si>
+  <si>
+    <t>9500000</t>
+  </si>
+  <si>
+    <t>9000000</t>
   </si>
 </sst>
 </file>
@@ -155,20 +169,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,7 +205,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -195,46 +213,46 @@
         <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -242,67 +260,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -321,35 +297,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -361,158 +313,771 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="15.2" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>9093507</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8460415</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>7682300</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2973193</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>2736690</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>2699700</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>2381741</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>2381741</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>1943945</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>1811569</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>1765050</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>769632</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffSayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="15.2" collapsed="false" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>16377742</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>9569901</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>9158960</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>9093507</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8460415</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>7682300</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2973193</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>2736690</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>2699700</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>2381741</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>2381741</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>1943945</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>1811569</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>1765050</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>769632</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffSayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="15.2" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>16377742</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>9569901</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>9158960</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>9093507</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>8460415</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>7682300</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>2973193</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>2736690</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>2699700</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>2381741</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>2381741</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>1943945</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>1811569</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>1765050</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>769632</v>
       </c>
-    </row>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffSayfa &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>